--- a/LME/parser_beta/data/investing_com/GDAXI.xlsx
+++ b/LME/parser_beta/data/investing_com/GDAXI.xlsx
@@ -660,7 +660,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>45260</v>
